--- a/Consultorio_medico_2_0/src/Documentos/Template_-_Plano_do_Projeto.xlsx
+++ b/Consultorio_medico_2_0/src/Documentos/Template_-_Plano_do_Projeto.xlsx
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="175">
   <si>
     <t>Observação</t>
   </si>
@@ -621,9 +621,6 @@
   </si>
   <si>
     <t>Seg 13-03-17</t>
-  </si>
-  <si>
-    <t>Seg 20-03-17</t>
   </si>
   <si>
     <t>Banco de Dados</t>
@@ -699,9 +696,6 @@
     <t>Fabíola/Mota/Dani</t>
   </si>
   <si>
-    <t>Seg 10-04-17</t>
-  </si>
-  <si>
     <t>Sprint 2: Tela de Administrador</t>
   </si>
   <si>
@@ -852,25 +846,31 @@
     <t>14/03 à 28/06</t>
   </si>
   <si>
-    <t>Seg 24-04-17</t>
-  </si>
-  <si>
-    <t>Seg 08-05-17</t>
-  </si>
-  <si>
-    <t>Seg 22-05-17</t>
-  </si>
-  <si>
-    <t>Seg 05-06-17</t>
-  </si>
-  <si>
-    <t>Seg 19-06-17</t>
-  </si>
-  <si>
     <t>Sex 30-06-17</t>
   </si>
   <si>
     <t>3 semanas</t>
+  </si>
+  <si>
+    <t>Seg 03-04-17</t>
+  </si>
+  <si>
+    <t>Seg 26-06-17</t>
+  </si>
+  <si>
+    <t>Seg 17-04-17</t>
+  </si>
+  <si>
+    <t>Seg 01-05-17</t>
+  </si>
+  <si>
+    <t>Seg 15-05-17</t>
+  </si>
+  <si>
+    <t>Seg 29-05-17</t>
+  </si>
+  <si>
+    <t>Seg 12-06-17</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _R_$_-;\-* #,##0.00\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1010,13 @@
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1545,9 +1552,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1604,15 +1608,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1688,17 +1686,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1763,6 +1761,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5103,35 +5110,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="42" customHeight="1">
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="2:15" ht="42" customHeight="1"/>
     <row r="4" spans="2:15">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="91"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="77"/>
       <c r="K5" s="20" t="s">
         <v>9</v>
       </c>
@@ -5143,28 +5150,28 @@
       <c r="K6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="74">
         <v>42807</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="75"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="77"/>
       <c r="K7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="74">
         <v>42914</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="75"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="20" t="s">
@@ -5173,58 +5180,58 @@
       <c r="K8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="74">
         <v>42808</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="75"/>
     </row>
     <row r="9" spans="2:15" ht="46.5" customHeight="1">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="K9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="75"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
       <c r="K11" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="46.5" customHeight="1">
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="14" spans="2:15" ht="15" customHeight="1">
       <c r="B14" s="20" t="s">
@@ -5236,25 +5243,25 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="80"/>
-      <c r="K15" s="79" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="77"/>
+      <c r="K15" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="80"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="14"/>
@@ -5322,11 +5329,11 @@
   <sheetData>
     <row r="1" spans="2:9" s="15" customFormat="1" ht="15"/>
     <row r="2" spans="2:9" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -5334,14 +5341,14 @@
     <row r="3" spans="2:9" s="15" customFormat="1" ht="42" customHeight="1"/>
     <row r="4" spans="2:9" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="2:9" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="7" spans="2:9" ht="12.75" thickBot="1">
@@ -5378,7 +5385,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>80</v>
@@ -5398,10 +5405,10 @@
         <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="12.75" thickBot="1">
@@ -6603,36 +6610,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="42" customHeight="1">
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="42" customHeight="1"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:8" ht="23.25" thickBot="1">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6641,14 +6648,14 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B8" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100" t="s">
+      <c r="B8" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="101"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="10">
         <v>42808</v>
       </c>
@@ -6657,14 +6664,14 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="101"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="96"/>
       <c r="F9" s="10">
         <v>42808</v>
       </c>
@@ -6673,14 +6680,14 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="101"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="96"/>
       <c r="F10" s="10">
         <v>42808</v>
       </c>
@@ -6689,14 +6696,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100" t="s">
+      <c r="B11" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="10">
         <v>42808</v>
       </c>
@@ -6705,14 +6712,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B12" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="101"/>
+      <c r="B12" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="96"/>
       <c r="F12" s="10">
         <v>42808</v>
       </c>
@@ -6721,82 +6728,82 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
@@ -6827,6 +6834,7 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
@@ -6840,7 +6848,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6867,11 +6874,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="42" customHeight="1">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -6879,12 +6886,12 @@
     <row r="3" spans="2:9" ht="42" customHeight="1"/>
     <row r="4" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1">
       <c r="B6" s="16"/>
@@ -6907,13 +6914,13 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>54</v>
@@ -6927,7 +6934,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>54</v>
@@ -6935,13 +6942,13 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1">
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>54</v>
@@ -6972,13 +6979,13 @@
       <c r="E14" s="26"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="73"/>
+      <c r="B16" s="70"/>
     </row>
     <row r="17" spans="3:6" ht="32.25" customHeight="1">
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -7017,12 +7024,12 @@
   <sheetData>
     <row r="1" spans="2:10" s="15" customFormat="1"/>
     <row r="2" spans="2:10" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -7031,15 +7038,15 @@
     <row r="3" spans="2:10" s="15" customFormat="1" ht="42" customHeight="1"/>
     <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="123"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:10" ht="15.75" thickBot="1">
@@ -7055,11 +7062,11 @@
       <c r="E7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="40" t="s">
@@ -7074,9 +7081,9 @@
       <c r="E8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
     </row>
     <row r="9" spans="2:10" ht="75.75" customHeight="1" thickBot="1">
       <c r="B9" s="40" t="s">
@@ -7087,9 +7094,9 @@
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="2:10" ht="45.75" thickBot="1">
       <c r="B10" s="40" t="s">
@@ -7100,9 +7107,9 @@
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" thickBot="1">
       <c r="B11" s="40" t="s">
@@ -7113,9 +7120,9 @@
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
     </row>
     <row r="12" spans="2:10" ht="45.75" thickBot="1">
       <c r="B12" s="28" t="s">
@@ -7126,9 +7133,9 @@
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
     </row>
     <row r="13" spans="2:10" ht="60.75" thickBot="1">
       <c r="B13" s="40" t="s">
@@ -7139,45 +7146,45 @@
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="38"/>
       <c r="C14" s="29"/>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
       <c r="B15" s="38"/>
       <c r="C15" s="29"/>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="39"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="29"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7209,10 +7216,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J71"/>
+  <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7227,12 +7234,12 @@
   <sheetData>
     <row r="1" spans="2:10" s="15" customFormat="1"/>
     <row r="2" spans="2:10" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -7242,14 +7249,14 @@
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:10" ht="15.75" thickBot="1">
@@ -7284,7 +7291,7 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1">
       <c r="B9" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="43"/>
@@ -7293,601 +7300,601 @@
       <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B10" s="50" t="s">
-        <v>94</v>
+      <c r="B10" s="122" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="44"/>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>91</v>
-      </c>
       <c r="G11" s="34" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="28" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="74" t="s">
+      <c r="E12" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="70" t="s">
-        <v>92</v>
+      <c r="G12" s="34" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="B13" s="28" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="28" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="69" t="s">
         <v>91</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B14" s="28" t="s">
-        <v>93</v>
+      <c r="B14" s="121" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="28" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>110</v>
+      <c r="G14" s="37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="28" t="s">
-        <v>115</v>
+      <c r="B15" s="121" t="s">
+        <v>119</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="69" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="28" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>91</v>
       </c>
       <c r="G16" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B17" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B18" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B17" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B18" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
       <c r="B19" s="28" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="37" t="s">
         <v>110</v>
       </c>
+      <c r="F19" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="G19" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1">
       <c r="B20" s="28" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="37" t="s">
         <v>110</v>
       </c>
+      <c r="F20" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="G20" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
       <c r="B21" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="37" t="s">
         <v>110</v>
       </c>
+      <c r="F21" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="G21" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1">
       <c r="B22" s="28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="37" t="s">
         <v>110</v>
       </c>
+      <c r="F22" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="G22" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1">
       <c r="B23" s="28" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="37" t="s">
         <v>110</v>
       </c>
+      <c r="F23" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="G23" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1">
       <c r="B24" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B25" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B26" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="72" t="s">
+      <c r="E26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B25" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B26" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
+      <c r="F26" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1">
       <c r="B27" s="28" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="28" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
       <c r="B28" s="28" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1">
       <c r="B29" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="28" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1">
       <c r="B30" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="28" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" thickBot="1">
       <c r="B31" s="28" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="28" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1">
       <c r="B32" s="28" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1">
       <c r="B33" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B34" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B35" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B34" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B35" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
+      <c r="E35" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1">
       <c r="B36" s="28" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="28" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1">
       <c r="B37" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1">
       <c r="B38" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1">
       <c r="B39" s="28" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="28" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1">
       <c r="B40" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B41" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B42" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B41" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B42" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1">
       <c r="B43" s="28" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="28" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1">
       <c r="B44" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1">
@@ -7896,460 +7903,442 @@
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1">
       <c r="B46" s="28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1">
       <c r="B47" s="28" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="28" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1">
       <c r="B48" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B49" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B50" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B49" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B50" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
+      <c r="E50" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1">
       <c r="B51" s="28" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="28" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1">
       <c r="B52" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1">
       <c r="B53" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1">
       <c r="B54" s="28" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="28" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1">
       <c r="B55" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B56" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B57" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B56" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B57" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
+      <c r="E57" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1">
       <c r="B58" s="28" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="28" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1">
       <c r="B59" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1">
       <c r="B60" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1">
       <c r="B61" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1">
       <c r="B62" s="28" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="28" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1">
       <c r="B63" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="123" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B64" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B65" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B64" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B65" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
+      <c r="E65" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" thickBot="1">
       <c r="B66" s="28" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="28" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1">
       <c r="B67" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1">
       <c r="B68" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="28" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" thickBot="1">
       <c r="B69" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="28" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" thickBot="1">
       <c r="B70" s="28" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="28" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F70" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B71" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G71" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8388,12 +8377,12 @@
     <row r="2" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="32"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -8402,17 +8391,17 @@
     <row r="3" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1"/>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:12" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:12" ht="15.75" thickBot="1">
@@ -8622,186 +8611,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="53" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="2:6" ht="60">
+      <c r="B4" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="2:6" ht="60">
-      <c r="B4" s="54" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-    </row>
-    <row r="6" spans="2:6" ht="30">
-      <c r="B6" s="53" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61" t="s">
+      <c r="F6" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="61" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+    </row>
+    <row r="8" spans="2:6" ht="30">
+      <c r="B8" s="54" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-    </row>
-    <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="55" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="2:6" ht="30.75" thickBot="1">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63">
+      <c r="F9" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B14" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+    </row>
+    <row r="16" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B16" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67">
+        <v>17</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" spans="2:6" ht="60">
+      <c r="B18" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62">
         <v>1</v>
       </c>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66" t="s">
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="2:6" ht="30.75" thickBot="1">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B14" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B16" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68">
-        <v>17</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="2:6" ht="60">
-      <c r="B18" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63">
-        <v>1</v>
-      </c>
-      <c r="F18" s="64"/>
-    </row>
-    <row r="19" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8830,157 +8819,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="2:6" ht="45">
+      <c r="B4" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+    </row>
+    <row r="8" spans="2:6" ht="30">
+      <c r="B8" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="2:6" ht="45">
-      <c r="B4" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-    </row>
-    <row r="6" spans="2:6" ht="30">
-      <c r="B6" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-    </row>
-    <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63">
+      <c r="C8" s="55"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62">
         <v>1</v>
       </c>
-      <c r="F8" s="64"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="67" t="s">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="53" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="2:6" ht="75.75" thickBot="1">
+      <c r="B14" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="2:6" ht="75.75" thickBot="1">
-      <c r="B14" s="59" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68" t="s">
+      <c r="F14" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+    </row>
+    <row r="16" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B16" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B16" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68">
+      <c r="C16" s="59"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67">
         <v>17</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>104</v>
+      <c r="F16" s="68" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Consultorio_medico_2_0/src/Documentos/Template_-_Plano_do_Projeto.xlsx
+++ b/Consultorio_medico_2_0/src/Documentos/Template_-_Plano_do_Projeto.xlsx
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="175">
   <si>
     <t>Observação</t>
   </si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>Tela Inicial (Escolher tipo de login)</t>
-  </si>
-  <si>
-    <t>Seg 13-03-17</t>
   </si>
   <si>
     <t>Banco de Dados</t>
@@ -675,9 +672,6 @@
     <t>Um ou mais objetos desta pasta de trabalho, como formas, WordArt ou caixas de texto, podem permitir que o texto exceda os limites do objeto. As versões anteriores do Excel não reconhecem essa opção e ocultarão o texto excedente.</t>
   </si>
   <si>
-    <t>Seg 27-03-17</t>
-  </si>
-  <si>
     <t>2 semanas</t>
   </si>
   <si>
@@ -783,9 +777,6 @@
     <t>UC017</t>
   </si>
   <si>
-    <t>Interface Gráfica(Prototipágem)</t>
-  </si>
-  <si>
     <t>Sprint 8: Ultima Revisão</t>
   </si>
   <si>
@@ -846,31 +837,40 @@
     <t>14/03 à 28/06</t>
   </si>
   <si>
-    <t>Sex 30-06-17</t>
-  </si>
-  <si>
     <t>3 semanas</t>
   </si>
   <si>
-    <t>Seg 03-04-17</t>
-  </si>
-  <si>
-    <t>Seg 26-06-17</t>
-  </si>
-  <si>
-    <t>Seg 17-04-17</t>
-  </si>
-  <si>
-    <t>Seg 01-05-17</t>
-  </si>
-  <si>
-    <t>Seg 15-05-17</t>
-  </si>
-  <si>
-    <t>Seg 29-05-17</t>
-  </si>
-  <si>
-    <t>Seg 12-06-17</t>
+    <t>1 semanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 dia </t>
+  </si>
+  <si>
+    <t>Tela Inicial</t>
+  </si>
+  <si>
+    <t>1  semanas</t>
+  </si>
+  <si>
+    <t>4 dias</t>
+  </si>
+  <si>
+    <t>Fabíola/Dani</t>
+  </si>
+  <si>
+    <t>Heron/Mota</t>
+  </si>
+  <si>
+    <t>3 dias</t>
+  </si>
+  <si>
+    <t>1 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26-04-17</t>
   </si>
 </sst>
 </file>
@@ -1623,6 +1623,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1761,15 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5110,35 +5110,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="42" customHeight="1">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="42" customHeight="1"/>
     <row r="4" spans="2:15">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="94"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="80"/>
       <c r="K5" s="20" t="s">
         <v>9</v>
       </c>
@@ -5150,28 +5150,28 @@
       <c r="K6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="77">
         <v>42807</v>
       </c>
-      <c r="O6" s="75"/>
+      <c r="O6" s="78"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="77"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="80"/>
       <c r="K7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="74">
+      <c r="N7" s="77">
         <v>42914</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="78"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="20" t="s">
@@ -5180,58 +5180,58 @@
       <c r="K8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="77">
         <v>42808</v>
       </c>
-      <c r="O8" s="75"/>
+      <c r="O8" s="78"/>
     </row>
     <row r="9" spans="2:15" ht="46.5" customHeight="1">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
       <c r="K9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="75"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
       <c r="K11" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="46.5" customHeight="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="14" spans="2:15" ht="15" customHeight="1">
       <c r="B14" s="20" t="s">
@@ -5243,25 +5243,25 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="77"/>
-      <c r="K15" s="76" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="80"/>
+      <c r="K15" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="77"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="14"/>
@@ -5329,11 +5329,11 @@
   <sheetData>
     <row r="1" spans="2:9" s="15" customFormat="1" ht="15"/>
     <row r="2" spans="2:9" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -5341,14 +5341,14 @@
     <row r="3" spans="2:9" s="15" customFormat="1" ht="42" customHeight="1"/>
     <row r="4" spans="2:9" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="2:9" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="7" spans="2:9" ht="12.75" thickBot="1">
@@ -5385,7 +5385,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>80</v>
@@ -5405,10 +5405,10 @@
         <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="12.75" thickBot="1">
@@ -6610,36 +6610,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="42" customHeight="1">
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="42" customHeight="1"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:8" ht="23.25" thickBot="1">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="103" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="104"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6648,14 +6648,14 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B8" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="95" t="s">
+      <c r="B8" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="10">
         <v>42808</v>
       </c>
@@ -6664,14 +6664,14 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="96"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="99"/>
       <c r="F9" s="10">
         <v>42808</v>
       </c>
@@ -6680,14 +6680,14 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="96"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="99"/>
       <c r="F10" s="10">
         <v>42808</v>
       </c>
@@ -6696,14 +6696,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="95" t="s">
+      <c r="B11" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="10">
         <v>42808</v>
       </c>
@@ -6712,14 +6712,14 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B12" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="96"/>
+      <c r="B12" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="99"/>
       <c r="F12" s="10">
         <v>42808</v>
       </c>
@@ -6728,82 +6728,82 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
@@ -6874,11 +6874,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="42" customHeight="1">
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -6886,12 +6886,12 @@
     <row r="3" spans="2:9" ht="42" customHeight="1"/>
     <row r="4" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1">
       <c r="B6" s="16"/>
@@ -6914,13 +6914,13 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>54</v>
@@ -6934,7 +6934,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>54</v>
@@ -6942,13 +6942,13 @@
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1">
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>54</v>
@@ -7024,12 +7024,12 @@
   <sheetData>
     <row r="1" spans="2:10" s="15" customFormat="1"/>
     <row r="2" spans="2:10" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -7038,15 +7038,15 @@
     <row r="3" spans="2:10" s="15" customFormat="1" ht="42" customHeight="1"/>
     <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="123"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:10" ht="15.75" thickBot="1">
@@ -7062,11 +7062,11 @@
       <c r="E7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="40" t="s">
@@ -7081,9 +7081,9 @@
       <c r="E8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:10" ht="75.75" customHeight="1" thickBot="1">
       <c r="B9" s="40" t="s">
@@ -7094,9 +7094,9 @@
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" spans="2:10" ht="45.75" thickBot="1">
       <c r="B10" s="40" t="s">
@@ -7107,9 +7107,9 @@
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" thickBot="1">
       <c r="B11" s="40" t="s">
@@ -7120,9 +7120,9 @@
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="2:10" ht="45.75" thickBot="1">
       <c r="B12" s="28" t="s">
@@ -7133,9 +7133,9 @@
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="2:10" ht="60.75" thickBot="1">
       <c r="B13" s="40" t="s">
@@ -7146,45 +7146,45 @@
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="38"/>
       <c r="C14" s="29"/>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
       <c r="B15" s="38"/>
       <c r="C15" s="29"/>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="39"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="29"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7216,10 +7216,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J70"/>
+  <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7234,12 +7234,12 @@
   <sheetData>
     <row r="1" spans="2:10" s="15" customFormat="1"/>
     <row r="2" spans="2:10" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -7249,14 +7249,14 @@
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:10" ht="15.75" thickBot="1">
@@ -7291,7 +7291,7 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1">
       <c r="B9" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="43"/>
@@ -7300,21 +7300,21 @@
       <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B10" s="122" t="s">
-        <v>93</v>
+      <c r="B10" s="75" t="s">
+        <v>92</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="50" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>109</v>
+        <v>173</v>
+      </c>
+      <c r="G10" s="34">
+        <v>42821</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
@@ -7323,111 +7323,113 @@
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="G11" s="34">
+        <v>42860</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="29"/>
+        <v>118</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>166</v>
+      </c>
       <c r="D12" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="34">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B13" s="74" t="s">
         <v>91</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="28" t="s">
-        <v>92</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="G13" s="34">
+        <v>42828</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B14" s="121" t="s">
-        <v>114</v>
+      <c r="B14" s="74" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F14" s="69">
+        <v>42807</v>
+      </c>
+      <c r="G14" s="37">
+        <v>42821</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="121" t="s">
-        <v>119</v>
+      <c r="B15" s="74" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F15" s="69">
+        <v>42807</v>
+      </c>
+      <c r="G15" s="37">
+        <v>42821</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>109</v>
+        <v>165</v>
+      </c>
+      <c r="F16" s="69">
+        <v>42860</v>
+      </c>
+      <c r="G16" s="37">
+        <v>42860</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1">
       <c r="B17" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="41"/>
@@ -7437,174 +7439,174 @@
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1">
       <c r="B18" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="F18" s="34">
+        <v>42863</v>
+      </c>
+      <c r="G18" s="37">
+        <v>42863</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
       <c r="B19" s="28" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="F19" s="34">
+        <v>42865</v>
+      </c>
+      <c r="G19" s="37">
+        <v>42872</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1">
       <c r="B20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="F20" s="34">
+        <v>42865</v>
+      </c>
+      <c r="G20" s="37">
+        <v>42872</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
       <c r="B21" s="28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="F21" s="34">
+        <v>42865</v>
+      </c>
+      <c r="G21" s="37">
+        <v>42872</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1">
       <c r="B22" s="28" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="F22" s="34">
+        <v>42865</v>
+      </c>
+      <c r="G22" s="37">
+        <v>42872</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1">
       <c r="B23" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="34">
+        <v>42872</v>
+      </c>
+      <c r="G23" s="37">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B24" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B25" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="E25" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="37">
+        <v>42874</v>
+      </c>
+      <c r="G25" s="37">
+        <v>42874</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1">
       <c r="B26" s="28" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="28" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F26" s="37">
+        <v>42877</v>
+      </c>
+      <c r="G26" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1">
       <c r="B27" s="28" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F27" s="37">
+        <v>42877</v>
+      </c>
+      <c r="G27" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
@@ -7616,131 +7618,131 @@
         <v>111</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F28" s="37">
+        <v>42877</v>
+      </c>
+      <c r="G28" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1">
       <c r="B29" s="28" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="28" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F29" s="37">
+        <v>42877</v>
+      </c>
+      <c r="G29" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1">
       <c r="B30" s="28" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="28" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F30" s="37">
+        <v>42877</v>
+      </c>
+      <c r="G30" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" thickBot="1">
       <c r="B31" s="28" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="28" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="F31" s="37">
+        <v>42877</v>
+      </c>
+      <c r="G31" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B32" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>171</v>
-      </c>
+      <c r="B32" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1">
       <c r="B33" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="28" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>171</v>
+        <v>165</v>
+      </c>
+      <c r="F33" s="37">
+        <v>42881</v>
+      </c>
+      <c r="G33" s="37">
+        <v>42881</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B34" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="37">
+        <v>42881</v>
+      </c>
+      <c r="G34" s="37">
+        <v>42885</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1">
       <c r="B35" s="28" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="28" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="F35" s="37">
+        <v>42881</v>
+      </c>
+      <c r="G35" s="37">
+        <v>42885</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1">
@@ -7749,252 +7751,252 @@
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="F36" s="37">
+        <v>42881</v>
+      </c>
+      <c r="G36" s="37">
+        <v>42885</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1">
       <c r="B37" s="28" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="28" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="F37" s="37">
+        <v>42881</v>
+      </c>
+      <c r="G37" s="37">
+        <v>42885</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1">
       <c r="B38" s="28" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="28" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="F38" s="37">
+        <v>42881</v>
+      </c>
+      <c r="G38" s="37">
+        <v>42885</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B39" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>172</v>
-      </c>
+      <c r="B39" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1">
       <c r="B40" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="28" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="F40" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G40" s="37">
+        <v>42886</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G41" s="37">
+        <v>42890</v>
+      </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1">
       <c r="B42" s="28" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="28" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="F42" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G42" s="37">
+        <v>42890</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1">
       <c r="B43" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="F43" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G43" s="37">
+        <v>42890</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1">
       <c r="B44" s="28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="F44" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G44" s="37">
+        <v>42890</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1">
       <c r="B45" s="28" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="28" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="F45" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G45" s="37">
+        <v>42890</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1">
       <c r="B46" s="28" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="28" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="F46" s="37">
+        <v>42886</v>
+      </c>
+      <c r="G46" s="37">
+        <v>42890</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B47" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>173</v>
-      </c>
+      <c r="B47" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1">
       <c r="B48" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="28" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="37" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="F48" s="37">
+        <v>42891</v>
+      </c>
+      <c r="G48" s="37">
+        <v>42891</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B49" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="B49" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="37">
+        <v>42891</v>
+      </c>
+      <c r="G49" s="37">
+        <v>42895</v>
+      </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1">
       <c r="B50" s="28" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="28" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="F50" s="37">
+        <v>42891</v>
+      </c>
+      <c r="G50" s="37">
+        <v>42895</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickBot="1">
@@ -8003,189 +8005,181 @@
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="F51" s="37">
+        <v>42891</v>
+      </c>
+      <c r="G51" s="37">
+        <v>42895</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1">
       <c r="B52" s="28" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="28" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="F52" s="37">
+        <v>42891</v>
+      </c>
+      <c r="G52" s="37">
+        <v>42895</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1">
       <c r="B53" s="28" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="28" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="F53" s="37">
+        <v>42891</v>
+      </c>
+      <c r="G53" s="37">
+        <v>42895</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B54" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>174</v>
-      </c>
+      <c r="B54" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1">
       <c r="B55" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="28" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="F55" s="37">
+        <v>42895</v>
+      </c>
+      <c r="G55" s="37">
+        <v>42895</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B56" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
+      <c r="B56" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="37">
+        <v>42895</v>
+      </c>
+      <c r="G56" s="37">
+        <v>42898</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" thickBot="1">
       <c r="B57" s="28" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="28" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F57" s="37">
+        <v>42895</v>
+      </c>
+      <c r="G57" s="37">
+        <v>42898</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1">
       <c r="B58" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F58" s="37">
+        <v>42895</v>
+      </c>
+      <c r="G58" s="37">
+        <v>42898</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1">
       <c r="B59" s="28" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="28" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F59" s="37">
+        <v>42895</v>
+      </c>
+      <c r="G59" s="37">
+        <v>42898</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1">
       <c r="B60" s="28" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="28" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F60" s="76">
+        <v>42895</v>
+      </c>
+      <c r="G60" s="37">
+        <v>42898</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B61" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>169</v>
-      </c>
+      <c r="B61" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="42"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1">
       <c r="B62" s="28" t="s">
@@ -8196,59 +8190,67 @@
         <v>85</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="F62" s="37">
+        <v>42897</v>
+      </c>
+      <c r="G62" s="37">
+        <v>42899</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" thickBot="1">
       <c r="B63" s="28" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="28" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="123" t="s">
-        <v>174</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="F63" s="37">
+        <v>42897</v>
+      </c>
+      <c r="G63" s="37">
+        <v>42899</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B64" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="49"/>
+      <c r="B64" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="37">
+        <v>42897</v>
+      </c>
+      <c r="G64" s="37">
+        <v>42899</v>
+      </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" thickBot="1">
       <c r="B65" s="28" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65" s="37" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="F65" s="37">
+        <v>42897</v>
+      </c>
+      <c r="G65" s="37">
+        <v>42899</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" thickBot="1">
@@ -8257,88 +8259,34 @@
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="F66" s="37">
+        <v>42897</v>
+      </c>
+      <c r="G66" s="37">
+        <v>42899</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1">
       <c r="B67" s="28" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="28" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B68" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G68" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B69" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G69" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B70" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G70" s="37" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="F67" s="37">
+        <v>42897</v>
+      </c>
+      <c r="G67" s="37">
+        <v>42899</v>
       </c>
     </row>
   </sheetData>
@@ -8377,12 +8325,12 @@
     <row r="2" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1">
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="32"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -8391,17 +8339,17 @@
     <row r="3" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1"/>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:12" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:12" ht="15.75" thickBot="1">
@@ -8612,7 +8560,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="30">
       <c r="B1" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="52"/>
       <c r="D1" s="60"/>
@@ -8621,7 +8569,7 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="60"/>
@@ -8637,7 +8585,7 @@
     </row>
     <row r="4" spans="2:6" ht="60">
       <c r="B4" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="61"/>
@@ -8653,15 +8601,15 @@
     </row>
     <row r="6" spans="2:6" ht="30">
       <c r="B6" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="60"/>
       <c r="E6" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
@@ -8673,7 +8621,7 @@
     </row>
     <row r="8" spans="2:6" ht="30">
       <c r="B8" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="62"/>
@@ -8687,10 +8635,10 @@
       <c r="C9" s="57"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -8709,7 +8657,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="60"/>
@@ -8725,15 +8673,15 @@
     </row>
     <row r="14" spans="2:6" ht="75.75" thickBot="1">
       <c r="B14" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1">
@@ -8745,7 +8693,7 @@
     </row>
     <row r="16" spans="2:6" ht="60.75" thickBot="1">
       <c r="B16" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="67"/>
@@ -8753,7 +8701,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1">
@@ -8765,7 +8713,7 @@
     </row>
     <row r="18" spans="2:6" ht="60">
       <c r="B18" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="62"/>
@@ -8779,10 +8727,10 @@
       <c r="C19" s="57"/>
       <c r="D19" s="64"/>
       <c r="E19" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -8820,7 +8768,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" s="52"/>
       <c r="D1" s="60"/>
@@ -8829,7 +8777,7 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="60"/>
@@ -8845,7 +8793,7 @@
     </row>
     <row r="4" spans="2:6" ht="45">
       <c r="B4" s="53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="61"/>
@@ -8861,15 +8809,15 @@
     </row>
     <row r="6" spans="2:6" ht="30">
       <c r="B6" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="60"/>
       <c r="E6" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
@@ -8881,7 +8829,7 @@
     </row>
     <row r="8" spans="2:6" ht="30">
       <c r="B8" s="54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="62"/>
@@ -8895,10 +8843,10 @@
       <c r="C9" s="57"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -8917,7 +8865,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="60"/>
@@ -8933,15 +8881,15 @@
     </row>
     <row r="14" spans="2:6" ht="75.75" thickBot="1">
       <c r="B14" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1">
@@ -8953,7 +8901,7 @@
     </row>
     <row r="16" spans="2:6" ht="60.75" thickBot="1">
       <c r="B16" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="67"/>
@@ -8961,7 +8909,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:6">
